--- a/biology/Zoologie/Edward_Allworthy_Armstrong/Edward_Allworthy_Armstrong.xlsx
+++ b/biology/Zoologie/Edward_Allworthy_Armstrong/Edward_Allworthy_Armstrong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Allworthy Armstrong est un ornithologue nord-irlandais, né le 8 octobre 1900 à Belfast et mort le 19 décembre 1978 à Cambridge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à étudier les sciences avant de passer un Bachelor of Arts de philosophie et de psychologie à l’université Queen's de Belfast. Il passe deux ans à étudier la théologie à l’université de Cambridge avant d’être ordonné prêtre à l’église anglicane. Il étudie l’anthropologie et passe deux ans à l’université de Hong Kong avant d’obtenir un Master of Arts dans le domaine des religions comparées à Leeds. Après avoir beaucoup voyagé, il s’installe dans la paroisse de St. Mark à Newnham (Cambridgeshire). Il se retire en 1966 à Cambridge.
 Il fait paraître plusieurs ouvrages importants. Birds of the Grey Wind (1940), où il évoque son enfance, connaît trois éditions et reçoit la Médaille John Burroughs. Bird Display and Behaviour, paraît 1942 et est révisé en 1947, est traduit en français en 1952 sous le titre de La vie amoureuse des Oiseaux.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1940 : Birds of the Grey Wind.
 1942 : Bird Display and Behaviour.
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ralph S. Parlmer (1980). Obituary, The Auk, 97 : 922-923.</t>
         </is>
@@ -613,7 +631,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>William Homan Thorpe (1979). Rev. Edward Allworthy Armstrong, Ibis, 121 (3) : 369-371.</t>
         </is>
